--- a/bots/crawl_ch/output/bread_coop_2023-01-01.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-01.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7074,45 +7074,45 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4136769</t>
+          <t>6652747</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
+          <t>Oelz Dinkel Sandwich</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/oelz-dinkel-sandwich/p/6652747</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Oelz</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7132,60 +7132,60 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln 1.95 Schweizer Franken</t>
+          <t>Oelz Dinkel Sandwich 3.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6652747</t>
+          <t>4136769</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Oelz Dinkel Sandwich</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/oelz-dinkel-sandwich/p/6652747</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
         </is>
       </c>
       <c r="D95" t="n">
+        <v>46</v>
+      </c>
+      <c r="E95" t="n">
         <v>5</v>
       </c>
-      <c r="E95" t="n">
-        <v>4</v>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Oelz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7205,22 +7205,22 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Oelz Dinkel Sandwich 3.15 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7646,31 +7646,31 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6826718</t>
+          <t>4043546</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück</t>
+          <t>Naturaplan Bio Zwieback Vollkorn</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehrkorn-broetchen-6-stueck/p/6826718</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -7679,12 +7679,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7704,42 +7704,42 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück 1.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Zwieback Vollkorn 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4043546</t>
+          <t>6826718</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn</t>
+          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehrkorn-broetchen-6-stueck/p/6826718</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7773,18 +7773,18 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn 4.10 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9058,45 +9058,45 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3040362</t>
+          <t>6820606</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Finn Crisp</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9116,56 +9116,60 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr"/>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>3040362</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Finn Crisp 200G</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E123" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Finn Crisp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>3.11/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9175,7 +9179,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9185,56 +9189,56 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
+          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6820606</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>3.11/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9244,7 +9248,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9254,22 +9258,18 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9411,31 +9411,31 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6628847</t>
+          <t>6737607</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Naturaplan Bio Semmeli</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -9444,12 +9444,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9469,46 +9469,46 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6737607</t>
+          <t>6628847</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E128" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -9517,12 +9517,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9542,22 +9542,22 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9768,35 +9768,35 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>5909120</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>R&amp;amp;L Mega Buns Rustico</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/r-l-mega-buns-rustico/p/5909120</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9826,46 +9826,50 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr"/>
+          <t>R&amp;amp;L Mega Buns Rustico 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5909120</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>R&amp;amp;L Mega Buns Rustico</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/r-l-mega-buns-rustico/p/5909120</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -9875,7 +9879,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9885,7 +9889,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9895,22 +9899,18 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>R&amp;amp;L Mega Buns Rustico 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Apricot 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10474,31 +10474,31 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -10507,12 +10507,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10532,46 +10532,46 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10605,22 +10605,22 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11606,45 +11606,45 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6383814</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E158" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11664,56 +11664,60 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>6383814</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Bauli Croissant Cream 6 Stück</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11723,7 +11727,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11733,22 +11737,18 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Cream 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12393,31 +12393,31 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6132537</t>
+          <t>4019115</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
+          <t>Choco Brownies 8 Stück</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -12426,12 +12426,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12451,42 +12451,42 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz 1.40 Schweizer Franken</t>
+          <t>Choco Brownies 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>4019115</t>
+          <t>6132537</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -12495,12 +12495,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12520,18 +12520,18 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13590,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14085,45 +14085,45 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14143,60 +14143,56 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14206,7 +14202,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14216,18 +14212,22 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14442,31 +14442,31 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6668457</t>
+          <t>6617154</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
+          <t>Prix Garantie Roggen Knäckebrot</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E198" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -14475,12 +14475,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.53/100g</t>
+          <t>0.38/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14500,46 +14500,46 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
+          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6617154</t>
+          <t>6668457</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -14548,12 +14548,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.38/100g</t>
+          <t>0.53/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14573,22 +14573,22 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -15797,31 +15797,31 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6569371</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Prix Garantie Knusperschnitte</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>4</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -15830,12 +15830,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15855,42 +15855,46 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr"/>
+          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6569371</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D218" t="n">
         <v>4</v>
       </c>
       <c r="E218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -15899,12 +15903,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15914,7 +15918,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15924,60 +15928,56 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D219" t="n">
         <v>10</v>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15997,60 +15997,56 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D220" t="n">
         <v>10</v>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16060,7 +16056,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16070,18 +16066,22 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16150,45 +16150,45 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E222" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16208,60 +16208,56 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E223" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16271,7 +16267,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16281,18 +16277,22 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr"/>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17280,7 +17280,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17775,45 +17775,45 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17833,56 +17833,56 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17902,18 +17902,18 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18406,45 +18406,45 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E254" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18464,60 +18464,56 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D255" t="n">
+        <v>8</v>
+      </c>
+      <c r="E255" t="n">
         <v>5</v>
       </c>
-      <c r="E255" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18527,7 +18523,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18537,18 +18533,22 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19106,7 +19106,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19248,45 +19248,45 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E266" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19296,7 +19296,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19311,51 +19311,51 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E267" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19380,13 +19380,13 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19524,7 +19524,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20234,45 +20234,45 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20282,7 +20282,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20292,60 +20292,56 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20355,7 +20351,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20365,18 +20361,22 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr"/>
+          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20514,45 +20514,45 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20572,12 +20572,12 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20587,45 +20587,45 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E285" t="n">
         <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20645,60 +20645,60 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E286" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20718,22 +20718,22 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -20806,45 +20806,45 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>5853824</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E288" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20864,56 +20864,60 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>5853824</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20923,7 +20927,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20933,22 +20937,18 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Pandorino 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22498,45 +22498,45 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22556,51 +22556,51 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D313" t="n">
+        <v>2</v>
+      </c>
+      <c r="E313" t="n">
         <v>4</v>
       </c>
-      <c r="E313" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -22625,46 +22625,42 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D314" t="n">
         <v>4</v>
       </c>
       <c r="E314" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -22673,12 +22669,12 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22688,7 +22684,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22698,42 +22694,46 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N314" t="inlineStr"/>
+          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E315" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -22742,12 +22742,12 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22767,46 +22767,42 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E316" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -22815,12 +22811,12 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22830,7 +22826,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22840,39 +22836,43 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E317" t="n">
         <v>4.5</v>
@@ -22884,12 +22884,12 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22909,18 +22909,18 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24186,45 +24186,45 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24234,7 +24234,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24244,56 +24244,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24313,18 +24313,18 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25294,45 +25294,45 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E352" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25352,56 +25352,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E353" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25421,18 +25421,18 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -25848,45 +25848,45 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25911,55 +25911,55 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E361" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25984,17 +25984,17 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26846,7 +26846,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26913,7 +26913,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -26982,45 +26982,43 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D376" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="E376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27030,7 +27028,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27040,58 +27038,56 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27101,7 +27097,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27111,18 +27107,22 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27684,7 +27684,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27753,7 +27753,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-01 06:49:41</t>
+          <t>2023-01-01 12:55:10</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-01.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-01.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13590,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14085,7 +14085,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16219,7 +16219,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17280,7 +17280,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19106,7 +19106,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19386,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19524,7 +19524,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26846,7 +26846,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26913,7 +26913,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27684,7 +27684,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27753,7 +27753,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-01 12:55:10</t>
+          <t>2023-01-01 20:49:23</t>
         </is>
       </c>
     </row>
